--- a/resources/script/mapping/sampleMapping/SampleMappings_10.xlsx
+++ b/resources/script/mapping/sampleMapping/SampleMappings_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ck/work/git/cumulocity-dynamic-mapper/resources/script/mapping/sampleMapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6DCDFE-4EF1-454F-B18E-6D0C04579C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7389939-A3BA-C84B-B0DC-438B857A671D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="-24940" windowWidth="34560" windowHeight="21580" xr2:uid="{B5E387B2-3E90-884E-B546-D827ECD68714}"/>
   </bookViews>
@@ -303,16 +303,6 @@
 }</t>
   </si>
   <si>
-    <t>st:      /plant1/#
-tt:      /plant1/+/+
-tts:     /plant1/line1/device1_measure1_Type
-sub:
-1.	[ * _TOPIC_LEVEL_[0]&amp;"_"&amp;_TOPIC_LEVEL_[1]&amp;"_"&amp;$substringBefore(_TOPIC_LEVEL_[2],"_") -&gt; source.id ]
-2.	[ $substringAfter(_TOPIC_LEVEL_[2],"_") -&gt; type ]
-3.	[ $now() -&gt; time ]
-4.	[ value -&gt; measure1_Type.V.value ]</t>
-  </si>
-  <si>
     <t>{
     "measure1_Type": {
         "V": {
@@ -385,15 +375,6 @@
     },
     "type": "c8y_ProcessLoadMeasurement"
 }</t>
-  </si>
-  <si>
-    <t>st:      arrayType/devices
-tt:      arrayType/devices
-tts:     arrayType/devices
-sub:
-1. [ $substringBefore($[0].devicePath,"_AL") -&gt; source.id ]
-2. [ $[].values[0].value -&gt; c8y_TemperatureMeasurement.T.value ] , choose option “Expand Array”
-3. [ $map($map($[].values[0].timestamp, $number), function($v) { $fromMillis($v)}) -&gt; time ] , choose option “Expand Array”</t>
   </si>
   <si>
     <t>[
@@ -439,9 +420,6 @@
 }</t>
   </si>
   <si>
-    <t>Create one device with the name: device_c8y_Serial_c2818e07-4c09-42f0-ba24-ddb712573ab5 and for this device create two measurements of type: "c8y_TemperatureMeasurement"</t>
-  </si>
-  <si>
     <t>{
   "source": {
     "id": "909090"
@@ -686,16 +664,6 @@
     <t>{
     "value": 100
 }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">st:       devices/#
-tt:       devices/+
-tts:      devices/device_best_01
-sub:
-1.	[ * _TOPIC_LEVEL_[1] -&gt; source.id ]
-2.	[ mea[0].values[0].value -&gt; c8y_ProcessLoadMeasurement.L.value ]
-3.	[ $map($map(mea.values[0].timestamp, $number), function($v, $i, $a) { $fromMillis($v) }) -&gt; time ]
- </t>
   </si>
   <si>
     <t>{
@@ -1000,17 +968,6 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">st:      panel
-tt:      panel
-tts:     panel
-check: Create non existing device
-sub:
-1.	[ * deviceId-&gt;source.id ]
-2.	[ $fromMillis($number(deviceTimestamp))-&gt; time ]
-3.	[ temperature-&gt;c8y_TemperatureMeasurement.T.value ]
- </t>
-  </si>
-  <si>
     <t>st:      panel
 tt:      panel
 tts:     panel
@@ -1189,6 +1146,136 @@
 2.  [ bus_opp -&gt; decription ]
 3.  [ * deviceId —&gt; c8y_Id ]
 </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">st:       devices/#
+tt:       devices/+
+tts:      devices/device_best_01
+check: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>Create non existing device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+sub:
+1.	[ * _TOPIC_LEVEL_[1] -&gt; source.id ]
+2.	[ mea[0].values[0].value -&gt; c8y_ProcessLoadMeasurement.L.value ]
+3.	[ $map($map(mea.values[0].timestamp, $number), function($v, $i, $a) { $fromMillis($v) }) -&gt; time ]
+ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">st:      /plant1/#
+tt:      /plant1/+/+
+tts:     /plant1/line1/device1_measure1_Type
+check: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>Create non existing device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+sub:
+1.	[ * _TOPIC_LEVEL_[0]&amp;"_"&amp;_TOPIC_LEVEL_[1]&amp;"_"&amp;$substringBefore(_TOPIC_LEVEL_[2],"_") -&gt; source.id ]
+2.	[ $substringAfter(_TOPIC_LEVEL_[2],"_") -&gt; type ]
+3.	[ $now() -&gt; time ]
+4.	[ value -&gt; measure1_Type.V.value ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">st:      arrayType/devices
+tt:      arrayType/devices
+tts:     arrayType/devices
+check: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>Create non existing device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+sub:
+1. [ $substringBefore($[0].devicePath,"_AL") -&gt; source.id ]
+2. [ $[].values[0].value -&gt; c8y_TemperatureMeasurement.T.value ] , choose option “Expand Array”
+3. [ $map($map($[].values[0].timestamp, $number), function($v) { $fromMillis($v)}) -&gt; time ] , choose option “Expand Array”</t>
+    </r>
+  </si>
+  <si>
+    <t>Create one device implicitly with the name: device_c8y_Serial_c2818e07-4c09-42f0-ba24-ddb712573ab5 and for this device create two measurements of type: "c8y_TemperatureMeasurement"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">st:      panel
+tt:      panel
+tts:     panel
+check: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>Create non existing device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+sub:
+1.	[ * deviceId-&gt;source.id ]
+2.	[ $fromMillis($number(deviceTimestamp))-&gt; time ]
+3.	[ temperature-&gt;c8y_TemperatureMeasurement.T.value ]
+ </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1652,8 +1739,8 @@
   </sheetPr>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="142" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="142" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1672,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -1681,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>3</v>
@@ -1692,22 +1779,22 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="182" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>29</v>
@@ -1715,22 +1802,22 @@
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="384" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>30</v>
@@ -1738,13 +1825,13 @@
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="182" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>5</v>
@@ -1753,7 +1840,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>14</v>
@@ -1761,13 +1848,13 @@
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="154" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>6</v>
@@ -1784,13 +1871,13 @@
     </row>
     <row r="6" spans="1:7" ht="182" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>7</v>
@@ -1807,13 +1894,13 @@
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="196" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>5</v>
@@ -1822,7 +1909,7 @@
         <v>37</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>28</v>
@@ -1830,68 +1917,68 @@
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="154" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="196" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>31</v>
@@ -1902,22 +1989,22 @@
         <v>13</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="112" x14ac:dyDescent="0.2">
@@ -1925,22 +2012,22 @@
         <v>14</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="G12" s="17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="140" x14ac:dyDescent="0.2">
@@ -1948,22 +2035,22 @@
         <v>15</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F13" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>64</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="98" x14ac:dyDescent="0.2">
@@ -1971,10 +2058,10 @@
         <v>17</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>5</v>
@@ -1983,7 +2070,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>21</v>
@@ -1994,7 +2081,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>35</v>
@@ -2017,10 +2104,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>6</v>
@@ -2029,7 +2116,7 @@
         <v>33</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>32</v>
@@ -2040,10 +2127,10 @@
         <v>20</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>27</v>
@@ -2063,10 +2150,10 @@
         <v>21</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>6</v>
@@ -2075,7 +2162,7 @@
         <v>26</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>10</v>
@@ -2086,22 +2173,22 @@
         <v>23</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="140" x14ac:dyDescent="0.2">
@@ -2109,10 +2196,10 @@
         <v>24</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>9</v>
@@ -2124,7 +2211,7 @@
         <v>23</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="252" x14ac:dyDescent="0.2">
@@ -2132,22 +2219,22 @@
         <v>25</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="168" x14ac:dyDescent="0.2">
@@ -2155,22 +2242,22 @@
         <v>26</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="196" x14ac:dyDescent="0.2">
@@ -2178,22 +2265,22 @@
         <v>27</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="224" x14ac:dyDescent="0.2">
@@ -2201,22 +2288,22 @@
         <v>51</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="196" x14ac:dyDescent="0.2">
@@ -2224,45 +2311,45 @@
         <v>52</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="210" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
